--- a/ConnectedOfficeWebApplication/Connected Office Test Data.xlsx
+++ b/ConnectedOfficeWebApplication/Connected Office Test Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\source\repos\CMPG-323-Project-4---34946039\ConnectedOfficeWebApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\Local project\CMPG-323-Project-4---34946039\ConnectedOfficeWebApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC1EF77-7199-4842-8CFD-F21856D97BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A707BED2-12CB-466B-AF45-045CC9A2686C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -280,7 +280,19 @@
     <t>Measuring speed of moving object</t>
   </si>
   <si>
-    <t>TRUE</t>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
   </si>
 </sst>
 </file>
@@ -1119,9 +1131,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FE4D3-E987-44A9-BA20-E766DD09E091}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1135,393 +1147,393 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="b">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,16 +1541,33 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
